--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>3448.264307967775</v>
+        <v>5306.768703810987</v>
       </c>
       <c r="R2">
-        <v>31034.37877170998</v>
+        <v>47760.91833429888</v>
       </c>
       <c r="S2">
-        <v>0.0031064719768646</v>
+        <v>0.004215266860158602</v>
       </c>
       <c r="T2">
-        <v>0.0031064719768646</v>
+        <v>0.004215266860158601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>20.0207679114791</v>
+        <v>24.97585860760178</v>
       </c>
       <c r="R3">
-        <v>180.186911203312</v>
+        <v>224.782727468416</v>
       </c>
       <c r="S3">
-        <v>1.803630723103522E-05</v>
+        <v>1.983879738663292E-05</v>
       </c>
       <c r="T3">
-        <v>1.803630723103522E-05</v>
+        <v>1.983879738663291E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>63.38789189113778</v>
+        <v>44.73009786225778</v>
       </c>
       <c r="R4">
-        <v>570.49102702024</v>
+        <v>402.57088076032</v>
       </c>
       <c r="S4">
-        <v>5.710487719208283E-05</v>
+        <v>3.552996365472309E-05</v>
       </c>
       <c r="T4">
-        <v>5.710487719208283E-05</v>
+        <v>3.552996365472309E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>1110.342590393771</v>
+        <v>1153.199334886016</v>
       </c>
       <c r="R5">
-        <v>9993.083313543935</v>
+        <v>10378.79401397414</v>
       </c>
       <c r="S5">
-        <v>0.001000285312760814</v>
+        <v>0.0009160080664550294</v>
       </c>
       <c r="T5">
-        <v>0.001000285312760814</v>
+        <v>0.0009160080664550293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>815900.0098260407</v>
+        <v>1006530.303656495</v>
       </c>
       <c r="R6">
-        <v>7343100.088434367</v>
+        <v>9058772.732908454</v>
       </c>
       <c r="S6">
-        <v>0.7350279126201579</v>
+        <v>0.7995060779079537</v>
       </c>
       <c r="T6">
-        <v>0.735027912620158</v>
+        <v>0.7995060779079536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>4737.149846070713</v>
+        <v>4737.149846070715</v>
       </c>
       <c r="R7">
-        <v>42634.34861463642</v>
+        <v>42634.34861463644</v>
       </c>
       <c r="S7">
-        <v>0.004267603041049905</v>
+        <v>0.003762807816253099</v>
       </c>
       <c r="T7">
-        <v>0.004267603041049905</v>
+        <v>0.003762807816253098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>14998.3229236019</v>
+        <v>8483.919593396062</v>
       </c>
       <c r="R8">
-        <v>134984.9063124171</v>
+        <v>76355.27634056455</v>
       </c>
       <c r="S8">
-        <v>0.01351168753348667</v>
+        <v>0.006738937968148236</v>
       </c>
       <c r="T8">
-        <v>0.01351168753348667</v>
+        <v>0.006738937968148236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>262720.1541132603</v>
+        <v>218726.3364023622</v>
       </c>
       <c r="R9">
-        <v>2364481.387019343</v>
+        <v>1968537.02762126</v>
       </c>
       <c r="S9">
-        <v>0.236679304026836</v>
+        <v>0.1737384703838071</v>
       </c>
       <c r="T9">
-        <v>0.236679304026836</v>
+        <v>0.1737384703838071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>4763.675575039875</v>
+        <v>10729.51005504299</v>
       </c>
       <c r="R10">
-        <v>42873.08017535887</v>
+        <v>96565.59049538687</v>
       </c>
       <c r="S10">
-        <v>0.004291499536895135</v>
+        <v>0.008522652989997749</v>
       </c>
       <c r="T10">
-        <v>0.004291499536895135</v>
+        <v>0.008522652989997749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>27.65810117080688</v>
+        <v>50.49753268333512</v>
       </c>
       <c r="R11">
-        <v>248.9229105372619</v>
+        <v>454.4777941500161</v>
       </c>
       <c r="S11">
-        <v>2.491662719179254E-05</v>
+        <v>4.011114633411012E-05</v>
       </c>
       <c r="T11">
-        <v>2.491662719179254E-05</v>
+        <v>4.011114633411012E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>87.56850559783223</v>
+        <v>90.4377148435911</v>
       </c>
       <c r="R12">
-        <v>788.11655038049</v>
+        <v>813.9394335923199</v>
       </c>
       <c r="S12">
-        <v>7.888870585326338E-05</v>
+        <v>7.183638925414173E-05</v>
       </c>
       <c r="T12">
-        <v>7.888870585326338E-05</v>
+        <v>7.183638925414173E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N13">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q13">
-        <v>1533.905584198837</v>
+        <v>2331.600367327615</v>
       </c>
       <c r="R13">
-        <v>13805.15025778954</v>
+        <v>20984.40330594854</v>
       </c>
       <c r="S13">
-        <v>0.001381864696815561</v>
+        <v>0.001852034318449124</v>
       </c>
       <c r="T13">
-        <v>0.001381864696815561</v>
+        <v>0.001852034318449124</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N14">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O14">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P14">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q14">
-        <v>457.16151317628</v>
+        <v>593.8703533492633</v>
       </c>
       <c r="R14">
-        <v>4114.453618586521</v>
+        <v>5344.83318014337</v>
       </c>
       <c r="S14">
-        <v>0.0004118476145525217</v>
+        <v>0.0004717224660472013</v>
       </c>
       <c r="T14">
-        <v>0.0004118476145525217</v>
+        <v>0.0004717224660472012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q15">
-        <v>2.654299014206666</v>
+        <v>2.795000649989889</v>
       </c>
       <c r="R15">
-        <v>23.88869112786</v>
+        <v>25.155005849909</v>
       </c>
       <c r="S15">
-        <v>2.391204608880984E-06</v>
+        <v>2.220121937020409E-06</v>
       </c>
       <c r="T15">
-        <v>2.391204608880984E-06</v>
+        <v>2.220121937020408E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N16">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q16">
-        <v>8.403794484966667</v>
+        <v>5.005659847908889</v>
       </c>
       <c r="R16">
-        <v>75.63415036470002</v>
+        <v>45.05093863118</v>
       </c>
       <c r="S16">
-        <v>7.5708094668253E-06</v>
+        <v>3.976090394699896E-06</v>
       </c>
       <c r="T16">
-        <v>7.5708094668253E-06</v>
+        <v>3.976090394699895E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N17">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q17">
-        <v>147.20620388512</v>
+        <v>129.052335746059</v>
       </c>
       <c r="R17">
-        <v>1324.85583496608</v>
+        <v>1161.471021714531</v>
       </c>
       <c r="S17">
-        <v>0.0001326151090370581</v>
+        <v>0.0001025087137688448</v>
       </c>
       <c r="T17">
-        <v>0.0001326151090370581</v>
+        <v>0.0001025087137688447</v>
       </c>
     </row>
   </sheetData>
